--- a/automação de cadastro/produtos.xlsx
+++ b/automação de cadastro/produtos.xlsx
@@ -531,11 +531,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/metalizado/prata.png</v>
       </c>
       <c r="K3" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX METALIZADO PRATA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Prata, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX METALIZADO PRATA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Prata, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L3" t="str">
@@ -592,11 +593,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo.png</v>
       </c>
       <c r="K4" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L4" t="str">
@@ -653,11 +655,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-claro.png</v>
       </c>
       <c r="K5" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL CLARO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Claro, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL CLARO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Claro, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L5" t="str">
@@ -714,11 +717,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-escuro.png</v>
       </c>
       <c r="K6" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL ESCURO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Escuro, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL ESCURO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Escuro, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L6" t="str">
@@ -775,11 +779,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/branco.png</v>
       </c>
       <c r="K7" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO BRANCO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO BRANCO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L7" t="str">
@@ -836,11 +841,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/laranja.png</v>
       </c>
       <c r="K8" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LARANJA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LARANJA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L8" t="str">
@@ -897,11 +903,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/lilas.png</v>
       </c>
       <c r="K9" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LILÁS 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Lilás, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LILÁS 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Lilás, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L9" t="str">
@@ -958,11 +965,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/pink.png</v>
       </c>
       <c r="K10" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO PINK 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Pink, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO PINK 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Pink, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L10" t="str">
@@ -1019,11 +1027,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/preto.png</v>
       </c>
       <c r="K11" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO PRETO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Preto, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO PRETO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Preto, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L11" t="str">
@@ -1080,11 +1089,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-baby.png</v>
       </c>
       <c r="K12" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA BABY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Baby, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA BABY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Baby, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L12" t="str">
@@ -1141,11 +1151,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-claro.png</v>
       </c>
       <c r="K13" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE CLARO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde Claro, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE CLARO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde Claro, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L13" t="str">
@@ -1202,11 +1213,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-bandeira.png</v>
       </c>
       <c r="K14" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE BANDEIRA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde Bandeira, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE BANDEIRA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde Bandeira, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L14" t="str">
@@ -1263,11 +1275,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/vermelho.png</v>
       </c>
       <c r="K15" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERMELHO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERMELHO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L15" t="str">
@@ -1324,11 +1337,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/marrom.png</v>
       </c>
       <c r="K16" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MARROM 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Marrom, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO MARROM 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Marrom, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L16" t="str">
@@ -1385,11 +1399,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-forte.png</v>
       </c>
       <c r="K17" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA FORTE 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Forte, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA FORTE 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Forte, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L17" t="str">
@@ -1446,11 +1461,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-limao.png</v>
       </c>
       <c r="K18" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE LIMAO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde LimAO, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE LIMAO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde LimAO, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L18" t="str">
@@ -1507,11 +1523,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/violeta.png</v>
       </c>
       <c r="K19" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VIOLETA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Violeta, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VIOLETA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Violeta, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L19" t="str">
@@ -1568,11 +1585,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/sortido.png</v>
       </c>
       <c r="K20" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L20" t="str">
@@ -1629,11 +1647,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/vermelho.png</v>
       </c>
       <c r="K21" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERMELHO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERMELHO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L21" t="str">
@@ -1690,11 +1709,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/metalizado/ouro.png</v>
       </c>
       <c r="K22" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX METALIZADO OURO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Ouro, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX METALIZADO OURO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Ouro, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L22" t="str">
@@ -1751,11 +1771,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/metalizado/sortido.png</v>
       </c>
       <c r="K23" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX METALIZADO SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 7" - 18cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX METALIZADO SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 7" - 18cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L23" t="str">
@@ -1812,11 +1833,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/ouro260.png</v>
       </c>
       <c r="K24" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO OURO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Ouro, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO OURO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Ouro, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L24" t="str">
@@ -1873,11 +1895,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/prata260.png</v>
       </c>
       <c r="K25" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO PRATA 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Prata, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO PRATA 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Prata, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L25" t="str">
@@ -1934,11 +1957,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/sortido260.png</v>
       </c>
       <c r="K26" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO SORTIDO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO SORTIDO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L26" t="str">
@@ -1995,11 +2019,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-royal.png</v>
       </c>
       <c r="K27" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL ROYAL 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL ROYAL, 
-        Tamanho: 8" - 20cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL ROYAL 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL ROYAL, &lt;br&gt;
+        Tamanho: 8" - 20cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L27" t="str">
@@ -2056,11 +2081,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-escuro.png</v>
       </c>
       <c r="K28" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE ESCURO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERDE ESCURO, 
-        Tamanho: 8" - 20cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE ESCURO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERDE ESCURO, &lt;br&gt;
+        Tamanho: 8" - 20cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L28" t="str">
@@ -2117,11 +2143,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/preto.png</v>
       </c>
       <c r="K29" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO PRETO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Preto, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO PRETO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Preto, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L29" t="str">
@@ -2178,11 +2205,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-claro.png</v>
       </c>
       <c r="K30" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL CLARO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Claro, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL CLARO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Claro, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L30" t="str">
@@ -2239,11 +2267,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/pink.png</v>
       </c>
       <c r="K31" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO PINK 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Pink, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO PINK 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Pink, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L31" t="str">
@@ -2300,11 +2329,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-forte.png</v>
       </c>
       <c r="K32" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA FORTE 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Forte, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA FORTE 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Forte, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L32" t="str">
@@ -2355,17 +2385,18 @@
         <v>100</v>
       </c>
       <c r="I33" t="str">
-        <v>BALÃO DE LATEX LISO PRETO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO PRETO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J33" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/preto350.png</v>
       </c>
       <c r="K33" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO PRETO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Preto, 
-        Tamanho: 350", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO PRETO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Preto, &lt;br&gt;
+        Tamanho: 350", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L33" t="str">
@@ -2422,11 +2453,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/sortido.png</v>
       </c>
       <c r="K34" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO SORTIDO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO SORTIDO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L34" t="str">
@@ -2483,11 +2515,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/rose-gold.png</v>
       </c>
       <c r="K35" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO ROSE GOLD 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSE GOLD, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO ROSE GOLD 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSE GOLD, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L35" t="str">
@@ -2544,11 +2577,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/rose-gold.png</v>
       </c>
       <c r="K36" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO ROSE GOLD 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSE GOLD, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO ROSE GOLD 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSE GOLD, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L36" t="str">
@@ -2605,11 +2639,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/ouro.png</v>
       </c>
       <c r="K37" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO OURO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Ouro, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO OURO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Ouro, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L37" t="str">
@@ -2666,11 +2701,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/prata.png</v>
       </c>
       <c r="K38" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO PRATA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Prata, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO PRATA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Prata, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L38" t="str">
@@ -2727,11 +2763,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/sortido.png</v>
       </c>
       <c r="K39" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L39" t="str">
@@ -2788,11 +2825,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-baby.png</v>
       </c>
       <c r="K40" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA BABY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Baby, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA BABY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Baby, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L40" t="str">
@@ -2849,11 +2887,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/amarelo.png</v>
       </c>
       <c r="K41" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON AMARELO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON AMARELO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L41" t="str">
@@ -2910,11 +2949,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/azul-escuro.png</v>
       </c>
       <c r="K42" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON AZUL ESCURO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Escuro, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON AZUL ESCURO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Escuro, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L42" t="str">
@@ -2971,11 +3011,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/laranja.png</v>
       </c>
       <c r="K43" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON LARANJA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON LARANJA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L43" t="str">
@@ -3032,11 +3073,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/verde-limao.png</v>
       </c>
       <c r="K44" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON VERDE LIMAO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde LimAO, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON VERDE LIMAO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde LimAO, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L44" t="str">
@@ -3093,11 +3135,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/azul.png</v>
       </c>
       <c r="K45" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO AZUL 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO AZUL 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L45" t="str">
@@ -3154,11 +3197,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/rosa.png</v>
       </c>
       <c r="K46" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO ROSA 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO ROSA 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L46" t="str">
@@ -3215,11 +3259,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/verde.png</v>
       </c>
       <c r="K47" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO VERDE 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO VERDE 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L47" t="str">
@@ -3276,11 +3321,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/vermelho.png</v>
       </c>
       <c r="K48" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO VERMELHO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO VERMELHO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L48" t="str">
@@ -3337,11 +3383,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/violeta.png</v>
       </c>
       <c r="K49" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO VIOLETA 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Violeta, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO VIOLETA 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Violeta, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L49" t="str">
@@ -3398,11 +3445,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/clear.png</v>
       </c>
       <c r="K50" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO CLEAR 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: CLEAR, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO CLEAR 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: CLEAR, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L50" t="str">
@@ -3459,11 +3507,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/vermelho150.png</v>
       </c>
       <c r="K51" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERMELHO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 150", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERMELHO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 150", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L51" t="str">
@@ -3514,17 +3563,18 @@
         <v>100</v>
       </c>
       <c r="I52" t="str">
-        <v>BALÃO DE LATEX LISO AMARELO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO AMARELO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J52" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo350.png</v>
       </c>
       <c r="K52" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 350", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO AMARELO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 350", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L52" t="str">
@@ -3575,17 +3625,18 @@
         <v>100</v>
       </c>
       <c r="I53" t="str">
-        <v>BALÃO DE LATEX LISO AZUL CLARO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO AZUL CLARO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J53" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-claro350.png</v>
       </c>
       <c r="K53" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL CLARO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Claro, 
-        Tamanho: 350", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO AZUL CLARO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Claro, &lt;br&gt;
+        Tamanho: 350", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L53" t="str">
@@ -3636,17 +3687,18 @@
         <v>100</v>
       </c>
       <c r="I54" t="str">
-        <v>BALÃO DE LATEX LISO BRANCO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO BRANCO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J54" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/branco350.png</v>
       </c>
       <c r="K54" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO BRANCO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 350", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO BRANCO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 350", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L54" t="str">
@@ -3697,17 +3749,18 @@
         <v>100</v>
       </c>
       <c r="I55" t="str">
-        <v>BALÃO DE LATEX LISO ROSA BABY 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO ROSA BABY 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J55" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-baby350.png</v>
       </c>
       <c r="K55" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA BABY 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Baby, 
-        Tamanho: 350", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO ROSA BABY 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Baby, &lt;br&gt;
+        Tamanho: 350", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L55" t="str">
@@ -3764,11 +3817,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/caramelo.png</v>
       </c>
       <c r="K56" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO CARAMELO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: CARAMELO, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO CARAMELO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: CARAMELO, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L56" t="str">
@@ -3825,11 +3879,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-militar.png</v>
       </c>
       <c r="K57" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE MILITAR 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERDE MILITAR, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE MILITAR 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERDE MILITAR, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L57" t="str">
@@ -3886,11 +3941,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-oliva.png</v>
       </c>
       <c r="K58" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE OLIVA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERDE oliva, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE OLIVA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERDE oliva, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L58" t="str">
@@ -3947,11 +4003,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/vermelho-rubi.png</v>
       </c>
       <c r="K59" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERMELHO RUBI 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERMELHO RUBI, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERMELHO RUBI 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERMELHO RUBI, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L59" t="str">
@@ -4008,11 +4065,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/vinho-tinto.png</v>
       </c>
       <c r="K60" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VINHO TINTO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VINHO TINTO, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VINHO TINTO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VINHO TINTO, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L60" t="str">
@@ -4069,11 +4127,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/pink.png</v>
       </c>
       <c r="K61" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON PINK 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Pink, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON PINK 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Pink, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L61" t="str">
@@ -4130,11 +4189,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/sortido260.png</v>
       </c>
       <c r="K62" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON SORTIDO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON SORTIDO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L62" t="str">
@@ -4191,11 +4251,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/ouro-velho.png</v>
       </c>
       <c r="K63" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO OURO VELHO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: OURO VELHO, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO OURO VELHO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: OURO VELHO, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L63" t="str">
@@ -4252,11 +4313,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/chumbo.png</v>
       </c>
       <c r="K64" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO CHUMBO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: CHUMBO, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO CHUMBO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: CHUMBO, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L64" t="str">
@@ -4313,11 +4375,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/bronze.png</v>
       </c>
       <c r="K65" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO BRONZE 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: BRONZE, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO BRONZE 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: BRONZE, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L65" t="str">
@@ -4374,11 +4437,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde.png</v>
       </c>
       <c r="K66" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L66" t="str">
@@ -4435,11 +4499,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/sortido.png</v>
       </c>
       <c r="K67" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO SORTIDO 100 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 2.5" - 6cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO SORTIDO 100 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 2.5" - 6cm, &lt;br&gt;
         Quantidade: Pacote com 100 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L67" t="str">
@@ -4496,11 +4561,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-turquesa.png</v>
       </c>
       <c r="K68" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL TURQUESA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Turquesa, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL TURQUESA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Turquesa, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L68" t="str">
@@ -4557,11 +4623,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-tropical.png</v>
       </c>
       <c r="K69" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE TROPICAL 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde Tropical, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE TROPICAL 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde Tropical, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L69" t="str">
@@ -4618,11 +4685,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/bege.png</v>
       </c>
       <c r="K70" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO BEGE 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Bege, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO BEGE 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Bege, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L70" t="str">
@@ -4679,11 +4747,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/cinza.png</v>
       </c>
       <c r="K71" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO CINZA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Cinza, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO CINZA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Cinza, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L71" t="str">
@@ -4740,11 +4809,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/coral.png</v>
       </c>
       <c r="K72" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO CORAL 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Coral, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO CORAL 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Coral, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L72" t="str">
@@ -4801,11 +4871,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/marfim.png</v>
       </c>
       <c r="K73" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MARFIM 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Marfim, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO MARFIM 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Marfim, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L73" t="str">
@@ -4862,11 +4933,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-baby.png</v>
       </c>
       <c r="K74" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE BABY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde Baby, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE BABY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde Baby, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L74" t="str">
@@ -4923,11 +4995,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-regata.png</v>
       </c>
       <c r="K75" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL REGATA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL REGATA, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL REGATA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL REGATA, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L75" t="str">
@@ -4984,11 +5057,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/skin.png</v>
       </c>
       <c r="K76" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO SKIN 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: SKIN, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO SKIN 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: SKIN, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L76" t="str">
@@ -5045,11 +5119,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-safira.png</v>
       </c>
       <c r="K77" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL SAFIRA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL SAFIRA, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL SAFIRA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL SAFIRA, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L77" t="str">
@@ -5106,11 +5181,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-claro.png</v>
       </c>
       <c r="K78" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL CLARO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Claro, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL CLARO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Claro, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L78" t="str">
@@ -5167,11 +5243,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo.png</v>
       </c>
       <c r="K79" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L79" t="str">
@@ -5228,11 +5305,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul.png</v>
       </c>
       <c r="K80" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L80" t="str">
@@ -5289,11 +5367,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/branco.png</v>
       </c>
       <c r="K81" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO BRANCO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO BRANCO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L81" t="str">
@@ -5350,11 +5429,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/lilas.png</v>
       </c>
       <c r="K82" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LILÁS 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Lilás, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LILÁS 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Lilás, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L82" t="str">
@@ -5411,11 +5491,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-baby.png</v>
       </c>
       <c r="K83" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA BABY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Baby, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA BABY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Baby, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L83" t="str">
@@ -5472,11 +5553,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/laranja.png</v>
       </c>
       <c r="K84" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LARANJA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LARANJA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L84" t="str">
@@ -5533,11 +5615,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/vermelho.png</v>
       </c>
       <c r="K85" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERMELHO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERMELHO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L85" t="str">
@@ -5594,11 +5677,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/preto.png</v>
       </c>
       <c r="K86" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO PRETO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Preto, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO PRETO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Preto, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L86" t="str">
@@ -5655,11 +5739,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/laranja260.png</v>
       </c>
       <c r="K87" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LARANJA 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LARANJA 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L87" t="str">
@@ -5716,11 +5801,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-forte.png</v>
       </c>
       <c r="K88" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA FORTE 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Forte, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA FORTE 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Forte, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L88" t="str">
@@ -5777,11 +5863,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde.png</v>
       </c>
       <c r="K89" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L89" t="str">
@@ -5832,17 +5919,18 @@
         <v>100</v>
       </c>
       <c r="I90" t="str">
-        <v>BALÃO DE LATEX LISO AZUL ESCURO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO AZUL ESCURO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J90" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-escuro250.png</v>
       </c>
       <c r="K90" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL ESCURO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Escuro, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO AZUL ESCURO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Escuro, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L90" t="str">
@@ -5893,17 +5981,18 @@
         <v>100</v>
       </c>
       <c r="I91" t="str">
-        <v>BALÃO DE LATEX LISO AZUL 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO AZUL 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J91" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul250.png</v>
       </c>
       <c r="K91" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO AZUL 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L91" t="str">
@@ -5954,17 +6043,18 @@
         <v>100</v>
       </c>
       <c r="I92" t="str">
-        <v>BALÃO DE LATEX LISO LILÁS 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO LILÁS 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J92" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/lilas250.png</v>
       </c>
       <c r="K92" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LILÁS 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Lilás, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO LILÁS 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Lilás, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L92" t="str">
@@ -6015,17 +6105,18 @@
         <v>100</v>
       </c>
       <c r="I93" t="str">
-        <v>BALÃO DE LATEX LISO LARANJA 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO LARANJA 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J93" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/laranja250.png</v>
       </c>
       <c r="K93" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LARANJA 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO LARANJA 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L93" t="str">
@@ -6076,17 +6167,18 @@
         <v>100</v>
       </c>
       <c r="I94" t="str">
-        <v>BALÃO DE LATEX LISO AZUL TURQUESA 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO AZUL TURQUESA 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J94" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-turquesa250.png</v>
       </c>
       <c r="K94" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL TURQUESA 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Turquesa, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO AZUL TURQUESA 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Turquesa, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L94" t="str">
@@ -6137,17 +6229,18 @@
         <v>100</v>
       </c>
       <c r="I95" t="str">
-        <v>BALÃO DE LATEX LISO CLEAR 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO CLEAR 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J95" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/clear250.png</v>
       </c>
       <c r="K95" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO CLEAR 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: CLEAR, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO CLEAR 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: CLEAR, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L95" t="str">
@@ -6198,17 +6291,18 @@
         <v>100</v>
       </c>
       <c r="I96" t="str">
-        <v>BALÃO DE LATEX LISO MARROM 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO MARROM 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J96" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/marrom250.png</v>
       </c>
       <c r="K96" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MARROM 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Marrom, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO MARROM 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Marrom, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L96" t="str">
@@ -6259,17 +6353,18 @@
         <v>100</v>
       </c>
       <c r="I97" t="str">
-        <v>BALÃO DE LATEX LISO VERDE LIMAO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO VERDE LIMAO 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J97" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-limao250.png</v>
       </c>
       <c r="K97" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE LIMAO 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde LimAO, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO VERDE LIMAO 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde LimAO, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L97" t="str">
@@ -6320,17 +6415,18 @@
         <v>100</v>
       </c>
       <c r="I98" t="str">
-        <v>BALÃO DE LATEX LISO ROSA FORTE 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO ROSA FORTE 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J98" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-forte250.png</v>
       </c>
       <c r="K98" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA FORTE 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Forte, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO ROSA FORTE 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Forte, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L98" t="str">
@@ -6381,17 +6477,18 @@
         <v>100</v>
       </c>
       <c r="I99" t="str">
-        <v>BALÃO DE LATEX LISO MARFIM 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO MARFIM 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J99" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/marfim250.png</v>
       </c>
       <c r="K99" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MARFIM 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Marfim, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO MARFIM 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Marfim, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L99" t="str">
@@ -6442,17 +6539,18 @@
         <v>100</v>
       </c>
       <c r="I100" t="str">
-        <v>BALÃO DE LATEX LISO VERDE 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO VERDE 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J100" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde250.png</v>
       </c>
       <c r="K100" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO VERDE 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L100" t="str">
@@ -6503,17 +6601,18 @@
         <v>100</v>
       </c>
       <c r="I101" t="str">
-        <v>BALÃO DE LATEX LISO SKIN 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
+        <v>BALÃO DE LATEX GIGANTE LISO SKIN 1 UNIDADE PICPIC - SHOP DOS BALÕES</v>
       </c>
       <c r="J101" t="str">
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/skin250.png</v>
       </c>
       <c r="K101" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO SKIN 1 UNIDADE PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: SKIN, 
-        Tamanho: 250", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX GIGANTE LISO SKIN 1 UNIDADE PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: SKIN, &lt;br&gt;
+        Tamanho: 250", &lt;br&gt;
         Quantidade: Pacote com 1 UNIDADE.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L101" t="str">
@@ -6570,11 +6669,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/branco260.png</v>
       </c>
       <c r="K102" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO BRANCO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO BRANCO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L102" t="str">
@@ -6631,11 +6731,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo260.png</v>
       </c>
       <c r="K103" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L103" t="str">
@@ -6692,11 +6793,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/marrom260.png</v>
       </c>
       <c r="K104" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MARROM 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Marrom, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO MARROM 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Marrom, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L104" t="str">
@@ -6753,11 +6855,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul260.png</v>
       </c>
       <c r="K105" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L105" t="str">
@@ -6814,11 +6917,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-limao260.png</v>
       </c>
       <c r="K106" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE LIMAO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde LimAO, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE LIMAO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde LimAO, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L106" t="str">
@@ -6875,11 +6979,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/lilas260.png</v>
       </c>
       <c r="K107" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LILÁS 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Lilás, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LILÁS 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Lilás, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L107" t="str">
@@ -6936,11 +7041,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde260.png</v>
       </c>
       <c r="K108" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 260", 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 260", &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L108" t="str">
@@ -6997,11 +7103,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa.png</v>
       </c>
       <c r="K109" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L109" t="str">
@@ -7058,11 +7165,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-escuro.png</v>
       </c>
       <c r="K110" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL ESCURO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Escuro, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL ESCURO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Escuro, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L110" t="str">
@@ -7119,11 +7227,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-escuro.png</v>
       </c>
       <c r="K111" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE ESCURO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERDE ESCURO, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE ESCURO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERDE ESCURO, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L111" t="str">
@@ -7180,11 +7289,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/clear.png</v>
       </c>
       <c r="K112" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO CLEAR 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: CLEAR, 
-        Tamanho: 10" - 25cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO CLEAR 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: CLEAR, &lt;br&gt;
+        Tamanho: 10" - 25cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L112" t="str">
@@ -7241,11 +7351,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/amarelo.png</v>
       </c>
       <c r="K113" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL AMARELO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL AMARELO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L113" t="str">
@@ -7302,11 +7413,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/laranja.png</v>
       </c>
       <c r="K114" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL LARANJA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL LARANJA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L114" t="str">
@@ -7363,11 +7475,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/azul.png</v>
       </c>
       <c r="K115" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL AZUL 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL AZUL 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L115" t="str">
@@ -7424,11 +7537,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/rosa-forte.png</v>
       </c>
       <c r="K116" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL ROSA FORTE 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa Forte, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL ROSA FORTE 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa Forte, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L116" t="str">
@@ -7485,11 +7599,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/vermelho.png</v>
       </c>
       <c r="K117" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL VERMELHO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL VERMELHO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L117" t="str">
@@ -7546,11 +7661,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/verde.png</v>
       </c>
       <c r="K118" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL VERDE 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL VERDE 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L118" t="str">
@@ -7607,11 +7723,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/violeta.png</v>
       </c>
       <c r="K119" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL VIOLETA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Violeta, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL VIOLETA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Violeta, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L119" t="str">
@@ -7668,11 +7785,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/sortido.png</v>
       </c>
       <c r="K120" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL SORTIDO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L120" t="str">
@@ -7729,11 +7847,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/amarelo.png</v>
       </c>
       <c r="K121" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON AMARELO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON AMARELO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L121" t="str">
@@ -7790,11 +7909,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/cristal/azul-safira.png</v>
       </c>
       <c r="K122" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX CRISTAL AZUL SAFIRA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL SAFIRA, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX CRISTAL AZUL SAFIRA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL SAFIRA, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L122" t="str">
@@ -7851,11 +7971,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/laranja.png</v>
       </c>
       <c r="K123" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON LARANJA 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON LARANJA 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L123" t="str">
@@ -7912,11 +8033,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/azul.png</v>
       </c>
       <c r="K124" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON AZUL 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON AZUL 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L124" t="str">
@@ -7973,11 +8095,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/pink.png</v>
       </c>
       <c r="K125" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON PINK 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Pink, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON PINK 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Pink, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L125" t="str">
@@ -8034,11 +8157,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul.png</v>
       </c>
       <c r="K126" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L126" t="str">
@@ -8095,11 +8219,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-limao.png</v>
       </c>
       <c r="K127" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE LIMAO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde LimAO, 
-        Tamanho: 12" - 30cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE LIMAO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde LimAO, &lt;br&gt;
+        Tamanho: 12" - 30cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L127" t="str">
@@ -8156,11 +8281,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-candy.png</v>
       </c>
       <c r="K128" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: verde CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: verde CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L128" t="str">
@@ -8217,11 +8343,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/azul.png</v>
       </c>
       <c r="K129" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO AZUL 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO AZUL 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L129" t="str">
@@ -8278,11 +8405,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/rosa.png</v>
       </c>
       <c r="K130" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO ROSA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO ROSA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L130" t="str">
@@ -8339,11 +8467,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/platino/vermelho.png</v>
       </c>
       <c r="K131" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PLATINO VERMELHO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Vermelho, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PLATINO VERMELHO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Vermelho, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L131" t="str">
@@ -8400,11 +8529,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo-candy.png</v>
       </c>
       <c r="K132" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AMARELO CANDY, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AMARELO CANDY, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L132" t="str">
@@ -8461,11 +8591,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-candy.png</v>
       </c>
       <c r="K133" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL CANDY, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL CANDY, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L133" t="str">
@@ -8522,11 +8653,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-candy.png</v>
       </c>
       <c r="K134" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA CANDY, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA CANDY, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L134" t="str">
@@ -8583,11 +8715,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo-papaya.png</v>
       </c>
       <c r="K135" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO PAPAYA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AMARELO PAPAYA, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO PAPAYA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AMARELO PAPAYA, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L135" t="str">
@@ -8644,11 +8777,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-indigo.png</v>
       </c>
       <c r="K136" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL INDIGO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL INDIGO, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL INDIGO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL INDIGO, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L136" t="str">
@@ -8705,11 +8839,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-piscina.png</v>
       </c>
       <c r="K137" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL PISCINA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL PISCINA, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL PISCINA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL PISCINA, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L137" t="str">
@@ -8766,11 +8901,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/lilas-orquidea.png</v>
       </c>
       <c r="K138" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LILAS ORQUIDEA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: lilas orquidea, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LILAS ORQUIDEA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: lilas orquidea, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L138" t="str">
@@ -8827,11 +8963,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-blush.png</v>
       </c>
       <c r="K139" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA BLUSH 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa blush, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA BLUSH 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa blush, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L139" t="str">
@@ -8888,11 +9025,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-menta.png</v>
       </c>
       <c r="K140" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE MENTA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde menta, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE MENTA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde menta, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L140" t="str">
@@ -8949,11 +9087,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/metalizado/branco.png</v>
       </c>
       <c r="K141" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX METALIZADO BRANCO 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX METALIZADO BRANCO 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L141" t="str">
@@ -9010,11 +9149,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/amarelo.png</v>
       </c>
       <c r="K142" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON AMARELO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Amarelo, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON AMARELO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Amarelo, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L142" t="str">
@@ -9071,11 +9211,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/laranja.png</v>
       </c>
       <c r="K143" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON LARANJA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Laranja, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON LARANJA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Laranja, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L143" t="str">
@@ -9132,11 +9273,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/rosa.png</v>
       </c>
       <c r="K144" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON ROSA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON ROSA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L144" t="str">
@@ -9193,11 +9335,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/neon/verde.png</v>
       </c>
       <c r="K145" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX NEON VERDE 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX NEON VERDE 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L145" t="str">
@@ -9254,11 +9397,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo-candy.png</v>
       </c>
       <c r="K146" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AMARELO CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AMARELO CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L146" t="str">
@@ -9315,11 +9459,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-candy.png</v>
       </c>
       <c r="K147" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L147" t="str">
@@ -9376,11 +9521,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-candy.png</v>
       </c>
       <c r="K148" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L148" t="str">
@@ -9437,11 +9583,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-candy.png</v>
       </c>
       <c r="K149" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: verde CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: verde CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L149" t="str">
@@ -9498,11 +9645,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/amarelo-papaya.png</v>
       </c>
       <c r="K150" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AMARELO PAPAYA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AMARELO PAPAYA, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AMARELO PAPAYA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AMARELO PAPAYA, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L150" t="str">
@@ -9559,11 +9707,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-indigo.png</v>
       </c>
       <c r="K151" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL INDIGO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL INDIGO, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL INDIGO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL INDIGO, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L151" t="str">
@@ -9620,11 +9769,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-piscina.png</v>
       </c>
       <c r="K152" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL PISCINA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL PISCINA, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL PISCINA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL PISCINA, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L152" t="str">
@@ -9681,11 +9831,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/lilas-orquidea.png</v>
       </c>
       <c r="K153" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LILAS ORQUIDEA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: lilas orquidea, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LILAS ORQUIDEA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: lilas orquidea, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L153" t="str">
@@ -9742,11 +9893,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/rosa-blush.png</v>
       </c>
       <c r="K154" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO ROSA BLUSH 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Rosa blush, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO ROSA BLUSH 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Rosa blush, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L154" t="str">
@@ -9803,11 +9955,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-menta.png</v>
       </c>
       <c r="K155" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE MENTA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Verde menta, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE MENTA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Verde menta, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L155" t="str">
@@ -9864,11 +10017,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/laranja-candy.png</v>
       </c>
       <c r="K156" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LARANJA CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: LARANJA CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LARANJA CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: LARANJA CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L156" t="str">
@@ -9925,11 +10079,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/nude.png</v>
       </c>
       <c r="K157" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO NUDE 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: NUDE, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO NUDE 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: NUDE, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L157" t="str">
@@ -9986,11 +10141,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/magenta.png</v>
       </c>
       <c r="K158" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MAGENTA 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: MAGENTA, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO MAGENTA 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: MAGENTA, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L158" t="str">
@@ -10047,11 +10203,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/azul-escuro.png</v>
       </c>
       <c r="K159" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO AZUL ESCURO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Azul Escuro, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO AZUL ESCURO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Azul Escuro, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L159" t="str">
@@ -10108,11 +10265,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/marrom.png</v>
       </c>
       <c r="K160" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MARROM 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Marrom, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO MARROM 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Marrom, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L160" t="str">
@@ -10169,11 +10327,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/bege.png</v>
       </c>
       <c r="K161" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO BEGE 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Bege, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO BEGE 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Bege, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L161" t="str">
@@ -10230,11 +10389,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-militar.png</v>
       </c>
       <c r="K162" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE MILITAR 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERDE MILITAR, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE MILITAR 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERDE MILITAR, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L162" t="str">
@@ -10291,11 +10451,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/verde-oliva.png</v>
       </c>
       <c r="K163" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO VERDE OLIVA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: VERDE oliva, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO VERDE OLIVA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: VERDE oliva, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L163" t="str">
@@ -10352,11 +10513,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/laranja-candy.png</v>
       </c>
       <c r="K164" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO LARANJA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: LARANJA CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO LARANJA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: LARANJA CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L164" t="str">
@@ -10413,11 +10575,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/nude.png</v>
       </c>
       <c r="K165" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO NUDE 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: NUDE, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO NUDE 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: NUDE, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L165" t="str">
@@ -10474,11 +10637,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/liso/magenta.png</v>
       </c>
       <c r="K166" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX LISO MAGENTA 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: MAGENTA, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX LISO MAGENTA 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: MAGENTA, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L166" t="str">
@@ -10535,11 +10699,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/sortido-candy.png</v>
       </c>
       <c r="K167" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA SORTIDO CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido CANDY, 
-        Tamanho: 5" - 13cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA SORTIDO CANDY 50 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido CANDY, &lt;br&gt;
+        Tamanho: 5" - 13cm, &lt;br&gt;
         Quantidade: Pacote com 50 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L167" t="str">
@@ -10596,11 +10761,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/branco.png</v>
       </c>
       <c r="K168" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA BRANCO 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA BRANCO 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L168" t="str">
@@ -10657,11 +10823,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/amarelo-candy.png</v>
       </c>
       <c r="K169" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA AMARELO CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AMARELO CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA AMARELO CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AMARELO CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L169" t="str">
@@ -10718,11 +10885,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/azul-candy.png</v>
       </c>
       <c r="K170" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA AZUL CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA AZUL CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L170" t="str">
@@ -10779,11 +10947,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/laranja-candy.png</v>
       </c>
       <c r="K171" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA LARANJA CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: LARANJA CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA LARANJA CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: LARANJA CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L171" t="str">
@@ -10840,11 +11009,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/rosa-candy.png</v>
       </c>
       <c r="K172" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA ROSA CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA ROSA CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L172" t="str">
@@ -10901,11 +11071,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/verde-candy.png</v>
       </c>
       <c r="K173" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA VERDE CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: verde CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA VERDE CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: verde CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L173" t="str">
@@ -10962,11 +11133,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/sortido-candy.png</v>
       </c>
       <c r="K174" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA SORTIDO CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Sortido CANDY, 
-        Tamanho: 9" - 23cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA SORTIDO CANDY 25 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Sortido CANDY, &lt;br&gt;
+        Tamanho: 9" - 23cm, &lt;br&gt;
         Quantidade: Pacote com 25 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L174" t="str">
@@ -11023,11 +11195,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/branco.png</v>
       </c>
       <c r="K175" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA BRANCO 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: Branco, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA BRANCO 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: Branco, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L175" t="str">
@@ -11084,11 +11257,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/amarelo-candy.png</v>
       </c>
       <c r="K176" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA AMARELO CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AMARELO CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA AMARELO CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AMARELO CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L176" t="str">
@@ -11145,11 +11319,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/azul-candy.png</v>
       </c>
       <c r="K177" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA AZUL CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: AZUL CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA AZUL CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: AZUL CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L177" t="str">
@@ -11206,11 +11381,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/laranja-candy.png</v>
       </c>
       <c r="K178" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA LARANJA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: LARANJA CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA LARANJA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: LARANJA CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L178" t="str">
@@ -11267,11 +11443,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/rosa-candy.png</v>
       </c>
       <c r="K179" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA ROSA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: ROSA CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA ROSA CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: ROSA CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L179" t="str">
@@ -11328,11 +11505,12 @@
         <v>https://mendoncagabriel.github.io/shopdosbaloes/imagem/picpic/perola/verde-candy.png</v>
       </c>
       <c r="K180" t="str" xml:space="preserve">
-        <v xml:space="preserve">BALÃO DE LATEX PEROLA VERDE CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES 
-        Marca: PICPIC, 
-        Cor: verde CANDY, 
-        Tamanho: 16" - 41cm, 
+        <v xml:space="preserve">&lt;p&gt;BALÃO DE LATEX PEROLA VERDE CANDY 12 UNIDADES PICPIC - SHOP DOS BALÕES &lt;br&gt;&lt;br&gt;
+        Marca: PICPIC, &lt;br&gt;
+        Cor: verde CANDY, &lt;br&gt;
+        Tamanho: 16" - 41cm, &lt;br&gt;
         Quantidade: Pacote com 12 UNIDADES.
+        &lt;/p&gt;
         </v>
       </c>
       <c r="L180" t="str">
